--- a/REGULAR/MALABANAN, ALMA AGUILA.xlsx
+++ b/REGULAR/MALABANAN, ALMA AGUILA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF74895-93D2-4152-A0B6-68C8193D7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A47A418-1AB9-431B-A12D-E4474B83EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'MAAM ALMA'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="180">
   <si>
     <t>PERIOD</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3001,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3016,6 +3019,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:K461" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A9:K461" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3396,9 +3400,9 @@
   <dimension ref="A2:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A341"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="3984" topLeftCell="A343" activePane="bottomLeft"/>
+      <selection activeCell="K9" sqref="A9:K9"/>
+      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3574,7 +3578,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>184.80500000000001</v>
+        <v>189.80500000000001</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="str">
@@ -3584,7 +3588,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>318.875</v>
+        <v>323.875</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
@@ -6302,7 +6306,7 @@
       <c r="D138" s="42"/>
       <c r="E138" s="48">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>184.80500000000001</v>
+        <v>189.80500000000001</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="41">
@@ -6312,7 +6316,7 @@
       <c r="H138" s="42"/>
       <c r="I138" s="48">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>318.875</v>
+        <v>323.875</v>
       </c>
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
@@ -10533,17 +10537,17 @@
       <c r="C344" s="13">
         <v>1.25</v>
       </c>
-      <c r="D344" s="39">
+      <c r="D344" s="11">
         <v>5</v>
       </c>
-      <c r="E344" s="48"/>
+      <c r="E344" s="9"/>
       <c r="F344" s="20"/>
       <c r="G344" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H344" s="39"/>
-      <c r="I344" s="48"/>
+      <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
@@ -10567,7 +10571,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -10586,8 +10590,8 @@
       <c r="K346" s="20"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="54">
-        <v>44958</v>
+      <c r="A347" s="23">
+        <v>44985</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13">
@@ -10606,17 +10610,19 @@
       <c r="K347" s="20"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348" s="54">
-        <v>44986</v>
+      <c r="A348" s="23">
+        <v>45016</v>
       </c>
       <c r="B348" s="20"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D348" s="39"/>
       <c r="E348" s="48"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H348" s="39"/>
       <c r="I348" s="48"/>
@@ -10624,17 +10630,19 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="54">
-        <v>45017</v>
+      <c r="A349" s="23">
+        <v>45046</v>
       </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39"/>
       <c r="E349" s="48"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="48"/>
@@ -10642,17 +10650,19 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="54">
-        <v>45047</v>
+      <c r="A350" s="23">
+        <v>45077</v>
       </c>
       <c r="B350" s="20"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D350" s="39"/>
       <c r="E350" s="48"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H350" s="39"/>
       <c r="I350" s="48"/>
@@ -10660,17 +10670,19 @@
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="54">
-        <v>45078</v>
+      <c r="A351" s="23">
+        <v>45107</v>
       </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="48"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39"/>
       <c r="I351" s="48"/>
@@ -10678,10 +10690,12 @@
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352" s="54">
-        <v>45108</v>
-      </c>
-      <c r="B352" s="20"/>
+      <c r="A352" s="23">
+        <v>45138</v>
+      </c>
+      <c r="B352" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
       <c r="E352" s="48"/>
@@ -10693,11 +10707,13 @@
       <c r="H352" s="39"/>
       <c r="I352" s="48"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
+      <c r="K352" s="47">
+        <v>45128</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353" s="54">
-        <v>45139</v>
+      <c r="A353" s="23">
+        <v>45169</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10714,8 +10730,8 @@
       <c r="K353" s="20"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354" s="54">
-        <v>45170</v>
+      <c r="A354" s="23">
+        <v>45199</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10732,8 +10748,8 @@
       <c r="K354" s="20"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="54">
-        <v>45200</v>
+      <c r="A355" s="23">
+        <v>45230</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10750,8 +10766,8 @@
       <c r="K355" s="20"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="54">
-        <v>45231</v>
+      <c r="A356" s="23">
+        <v>45260</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10768,8 +10784,8 @@
       <c r="K356" s="20"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357" s="54">
-        <v>45261</v>
+      <c r="A357" s="23">
+        <v>45291</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10786,8 +10802,8 @@
       <c r="K357" s="20"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="54">
-        <v>45292</v>
+      <c r="A358" s="23">
+        <v>45322</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10804,8 +10820,8 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359" s="54">
-        <v>45323</v>
+      <c r="A359" s="23">
+        <v>45351</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10822,8 +10838,8 @@
       <c r="K359" s="20"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360" s="54">
-        <v>45352</v>
+      <c r="A360" s="23">
+        <v>45382</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10840,8 +10856,8 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361" s="54">
-        <v>45383</v>
+      <c r="A361" s="23">
+        <v>45412</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10858,8 +10874,8 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="54">
-        <v>45413</v>
+      <c r="A362" s="23">
+        <v>45443</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10876,8 +10892,8 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="54">
-        <v>45444</v>
+      <c r="A363" s="23">
+        <v>45473</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10894,8 +10910,8 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="54">
-        <v>45474</v>
+      <c r="A364" s="23">
+        <v>45504</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10912,8 +10928,8 @@
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="54">
-        <v>45505</v>
+      <c r="A365" s="23">
+        <v>45535</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10930,8 +10946,8 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="54">
-        <v>45536</v>
+      <c r="A366" s="23">
+        <v>45565</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10948,8 +10964,8 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367" s="54">
-        <v>45566</v>
+      <c r="A367" s="23">
+        <v>45596</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10966,8 +10982,8 @@
       <c r="K367" s="20"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="54">
-        <v>45597</v>
+      <c r="A368" s="23">
+        <v>45626</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10984,8 +11000,8 @@
       <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="54">
-        <v>45627</v>
+      <c r="A369" s="23">
+        <v>45657</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11002,8 +11018,8 @@
       <c r="K369" s="20"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370" s="54">
-        <v>45658</v>
+      <c r="A370" s="23">
+        <v>45688</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11020,8 +11036,8 @@
       <c r="K370" s="20"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371" s="54">
-        <v>45689</v>
+      <c r="A371" s="23">
+        <v>45716</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11038,8 +11054,8 @@
       <c r="K371" s="20"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372" s="54">
-        <v>45717</v>
+      <c r="A372" s="23">
+        <v>45747</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11056,8 +11072,8 @@
       <c r="K372" s="20"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373" s="54">
-        <v>45748</v>
+      <c r="A373" s="23">
+        <v>45777</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11074,8 +11090,8 @@
       <c r="K373" s="20"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374" s="54">
-        <v>45778</v>
+      <c r="A374" s="23">
+        <v>45808</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11092,8 +11108,8 @@
       <c r="K374" s="20"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375" s="54">
-        <v>45809</v>
+      <c r="A375" s="23">
+        <v>45838</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11110,8 +11126,8 @@
       <c r="K375" s="20"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="54">
-        <v>45839</v>
+      <c r="A376" s="23">
+        <v>45869</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11128,8 +11144,8 @@
       <c r="K376" s="20"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="54">
-        <v>45870</v>
+      <c r="A377" s="23">
+        <v>45900</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11146,8 +11162,8 @@
       <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="54">
-        <v>45901</v>
+      <c r="A378" s="23">
+        <v>45930</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>

--- a/REGULAR/MALABANAN, ALMA AGUILA.xlsx
+++ b/REGULAR/MALABANAN, ALMA AGUILA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A47A418-1AB9-431B-A12D-E4474B83EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A6524-CB81-4AA8-A17E-1D080EE236D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="181">
   <si>
     <t>PERIOD</t>
   </si>
@@ -574,7 +574,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>SP(1-0-0)</t>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -3402,7 +3405,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3984" topLeftCell="A343" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="A9:K9"/>
-      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
+      <selection pane="bottomLeft" activeCell="K352" sqref="K352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10707,8 +10710,8 @@
       <c r="H352" s="39"/>
       <c r="I352" s="48"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="47">
-        <v>45128</v>
+      <c r="K352" s="47" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">

--- a/REGULAR/MALABANAN, ALMA AGUILA.xlsx
+++ b/REGULAR/MALABANAN, ALMA AGUILA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A6524-CB81-4AA8-A17E-1D080EE236D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33CFA2-E4D7-436D-80F9-AA26981B1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="183">
   <si>
     <t>PERIOD</t>
   </si>
@@ -568,9 +568,6 @@
     <t>Solo P.(4-0-0)</t>
   </si>
   <si>
-    <t>Dec. 5-9</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -578,6 +575,15 @@
   </si>
   <si>
     <t>7/18-20/2023</t>
+  </si>
+  <si>
+    <t>OFFICIAL BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHINA 9/20-24/2023</t>
+  </si>
+  <si>
+    <t>Dec. 5-9, 2022</t>
   </si>
 </sst>
 </file>
@@ -3022,7 +3028,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:K461" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A9:K461" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <autoFilter ref="A9:K461" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3403,9 +3409,9 @@
   <dimension ref="A2:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A343" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A182" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="A9:K9"/>
-      <selection pane="bottomLeft" activeCell="K352" sqref="K352"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3581,7 +3587,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>189.80500000000001</v>
+        <v>192.30500000000001</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="str">
@@ -3591,7 +3597,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>323.875</v>
+        <v>326.375</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
@@ -6309,7 +6315,7 @@
       <c r="D138" s="42"/>
       <c r="E138" s="48">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>189.80500000000001</v>
+        <v>192.30500000000001</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="41">
@@ -6319,7 +6325,7 @@
       <c r="H138" s="42"/>
       <c r="I138" s="48">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>323.875</v>
+        <v>326.375</v>
       </c>
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
@@ -10527,7 +10533,7 @@
       <c r="I343" s="48"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -10556,7 +10562,7 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10697,21 +10703,23 @@
         <v>45138</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C352" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="48"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39"/>
       <c r="I352" s="48"/>
       <c r="J352" s="11"/>
       <c r="K352" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
@@ -10719,13 +10727,15 @@
         <v>45169</v>
       </c>
       <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="48"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39"/>
       <c r="I353" s="48"/>
@@ -10736,7 +10746,9 @@
       <c r="A354" s="23">
         <v>45199</v>
       </c>
-      <c r="B354" s="20"/>
+      <c r="B354" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
       <c r="E354" s="48"/>
@@ -10748,7 +10760,9 @@
       <c r="H354" s="39"/>
       <c r="I354" s="48"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
+      <c r="K354" s="20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">

--- a/REGULAR/MALABANAN, ALMA AGUILA.xlsx
+++ b/REGULAR/MALABANAN, ALMA AGUILA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22512795-7D83-41BF-9E58-BA1BD15DB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'MAAM ALMA'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="186">
   <si>
     <t>PERIOD</t>
   </si>
@@ -584,12 +583,21 @@
   </si>
   <si>
     <t>Dec. 5-9, 2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>02/22-26/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -839,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,7 +1503,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1546,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1610,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1670,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1736,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1799,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1897,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1956,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2021,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2064,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2139,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2325,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2391,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2449,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2515,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2571,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2646,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2689,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2755,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2811,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2909,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,7 +2972,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,7 +3021,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3027,26 +3038,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:K461" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A9:K461" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:K462" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A9:K462"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3058,13 +3069,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3073,14 +3084,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3384,7 +3395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3394,7 +3405,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3402,34 +3413,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K461"/>
+  <dimension ref="A2:K462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A343" activePane="bottomLeft"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4590" topLeftCell="A352" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="A9:K9"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353:C356"/>
+      <selection pane="bottomLeft" activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3461,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3481,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3503,7 @@
       <c r="J4" s="64"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3500,7 +3511,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3513,7 +3524,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3530,7 +3541,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="55"/>
       <c r="B8" s="56"/>
       <c r="C8" s="53"/>
@@ -3543,7 +3554,7 @@
       <c r="J8" s="53"/>
       <c r="K8" s="57"/>
     </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>23</v>
@@ -3587,7 +3598,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>196.05500000000001</v>
+        <v>193.55500000000001</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="str">
@@ -3597,12 +3608,12 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>330.125</v>
+        <v>332.625</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>46</v>
       </c>
@@ -3622,7 +3633,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>47</v>
       </c>
@@ -3642,7 +3653,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="47"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>48</v>
       </c>
@@ -3662,7 +3673,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>49</v>
       </c>
@@ -3680,7 +3691,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>50</v>
       </c>
@@ -3700,7 +3711,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>51</v>
       </c>
@@ -3720,7 +3731,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>52</v>
       </c>
@@ -3740,7 +3751,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>53</v>
       </c>
@@ -3760,7 +3771,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>54</v>
       </c>
@@ -3780,7 +3791,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3811,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>56</v>
       </c>
@@ -3820,7 +3831,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>57</v>
       </c>
@@ -3840,7 +3851,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>117</v>
       </c>
@@ -3860,7 +3871,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>58</v>
       </c>
@@ -3880,7 +3891,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>59</v>
       </c>
@@ -3900,7 +3911,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>48</v>
       </c>
@@ -3924,7 +3935,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>60</v>
       </c>
@@ -3942,7 +3953,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>50</v>
       </c>
@@ -3962,7 +3973,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>51</v>
       </c>
@@ -3982,7 +3993,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>52</v>
       </c>
@@ -4002,7 +4013,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>53</v>
       </c>
@@ -4022,7 +4033,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>54</v>
       </c>
@@ -4042,7 +4053,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>55</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>56</v>
       </c>
@@ -4088,7 +4099,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>57</v>
       </c>
@@ -4112,7 +4123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>117</v>
       </c>
@@ -4132,7 +4143,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
@@ -4152,7 +4163,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>59</v>
       </c>
@@ -4172,7 +4183,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>48</v>
       </c>
@@ -4192,7 +4203,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>61</v>
       </c>
@@ -4210,7 +4221,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>50</v>
       </c>
@@ -4230,7 +4241,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>51</v>
       </c>
@@ -4250,7 +4261,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>52</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>53</v>
       </c>
@@ -4296,7 +4307,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>54</v>
       </c>
@@ -4316,7 +4327,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>55</v>
       </c>
@@ -4336,7 +4347,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>56</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>57</v>
       </c>
@@ -4382,7 +4393,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>117</v>
       </c>
@@ -4402,7 +4413,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>58</v>
       </c>
@@ -4422,7 +4433,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>59</v>
       </c>
@@ -4442,7 +4453,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>48</v>
       </c>
@@ -4466,7 +4477,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>67</v>
       </c>
@@ -4484,7 +4495,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>50</v>
       </c>
@@ -4504,7 +4515,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>51</v>
       </c>
@@ -4524,7 +4535,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
         <v>52</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>53</v>
       </c>
@@ -4568,7 +4579,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>54</v>
       </c>
@@ -4588,7 +4599,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>55</v>
       </c>
@@ -4608,7 +4619,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>56</v>
       </c>
@@ -4628,7 +4639,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>57</v>
       </c>
@@ -4648,7 +4659,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>117</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>58</v>
       </c>
@@ -4694,7 +4705,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>59</v>
       </c>
@@ -4718,7 +4729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>48</v>
       </c>
@@ -4742,7 +4753,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="20" t="s">
         <v>73</v>
@@ -4762,7 +4773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>77</v>
       </c>
@@ -4780,7 +4791,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>50</v>
       </c>
@@ -4800,7 +4811,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>51</v>
       </c>
@@ -4820,7 +4831,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>52</v>
       </c>
@@ -4840,7 +4851,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>53</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>54</v>
       </c>
@@ -4884,7 +4895,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>55</v>
       </c>
@@ -4904,7 +4915,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>56</v>
       </c>
@@ -4924,7 +4935,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>57</v>
       </c>
@@ -4944,7 +4955,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>117</v>
       </c>
@@ -4964,7 +4975,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>58</v>
       </c>
@@ -4984,7 +4995,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
         <v>59</v>
       </c>
@@ -5004,7 +5015,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
         <v>48</v>
       </c>
@@ -5028,7 +5039,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
         <v>83</v>
       </c>
@@ -5046,7 +5057,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>50</v>
       </c>
@@ -5070,7 +5081,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>51</v>
       </c>
@@ -5094,7 +5105,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="50"/>
       <c r="B83" s="20" t="s">
         <v>73</v>
@@ -5114,7 +5125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>52</v>
       </c>
@@ -5138,7 +5149,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
         <v>53</v>
       </c>
@@ -5162,7 +5173,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
         <v>54</v>
       </c>
@@ -5186,7 +5197,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>55</v>
       </c>
@@ -5210,7 +5221,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>56</v>
       </c>
@@ -5234,7 +5245,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
         <v>57</v>
       </c>
@@ -5258,7 +5269,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>117</v>
       </c>
@@ -5282,7 +5293,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
         <v>58</v>
       </c>
@@ -5306,7 +5317,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>59</v>
       </c>
@@ -5330,7 +5341,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>92</v>
@@ -5350,7 +5361,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>48</v>
       </c>
@@ -5374,7 +5385,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="49" t="s">
         <v>93</v>
       </c>
@@ -5392,7 +5403,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>50</v>
       </c>
@@ -5412,7 +5423,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
         <v>51</v>
       </c>
@@ -5432,7 +5443,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
         <v>52</v>
       </c>
@@ -5456,7 +5467,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
         <v>53</v>
       </c>
@@ -5476,7 +5487,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>54</v>
       </c>
@@ -5496,7 +5507,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>55</v>
       </c>
@@ -5516,7 +5527,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
         <v>56</v>
       </c>
@@ -5536,7 +5547,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
         <v>57</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
         <v>117</v>
       </c>
@@ -5582,7 +5593,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
         <v>58</v>
       </c>
@@ -5602,7 +5613,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
         <v>59</v>
       </c>
@@ -5622,7 +5633,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>48</v>
       </c>
@@ -5646,7 +5657,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
         <v>96</v>
       </c>
@@ -5664,7 +5675,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>50</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>51</v>
       </c>
@@ -5714,7 +5725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="50" t="s">
         <v>52</v>
       </c>
@@ -5734,7 +5745,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
         <v>53</v>
       </c>
@@ -5754,7 +5765,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
         <v>54</v>
       </c>
@@ -5778,7 +5789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>55</v>
       </c>
@@ -5798,7 +5809,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
         <v>56</v>
       </c>
@@ -5824,7 +5835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
         <v>57</v>
       </c>
@@ -5844,7 +5855,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
         <v>117</v>
       </c>
@@ -5870,7 +5881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23" t="s">
         <v>58</v>
       </c>
@@ -5890,7 +5901,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
         <v>59</v>
       </c>
@@ -5914,7 +5925,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
         <v>48</v>
       </c>
@@ -5938,7 +5949,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="49" t="s">
         <v>104</v>
       </c>
@@ -5956,7 +5967,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23" t="s">
         <v>50</v>
       </c>
@@ -5982,7 +5993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>107</v>
@@ -6002,7 +6013,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
         <v>51</v>
       </c>
@@ -6026,7 +6037,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
         <v>52</v>
       </c>
@@ -6052,7 +6063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="50"/>
       <c r="B126" s="20" t="s">
         <v>81</v>
@@ -6072,7 +6083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="50"/>
       <c r="B127" s="20" t="s">
         <v>112</v>
@@ -6092,7 +6103,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23" t="s">
         <v>53</v>
       </c>
@@ -6116,7 +6127,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23" t="s">
         <v>54</v>
       </c>
@@ -6140,7 +6151,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
         <v>55</v>
       </c>
@@ -6160,7 +6171,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
         <v>56</v>
       </c>
@@ -6180,7 +6191,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
         <v>57</v>
       </c>
@@ -6200,7 +6211,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
         <v>117</v>
       </c>
@@ -6220,7 +6231,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
         <v>58</v>
       </c>
@@ -6240,7 +6251,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
         <v>59</v>
       </c>
@@ -6260,7 +6271,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>72</v>
@@ -6282,7 +6293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>109</v>
@@ -6304,7 +6315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
         <v>48</v>
       </c>
@@ -6315,7 +6326,7 @@
       <c r="D138" s="42"/>
       <c r="E138" s="48">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>196.05500000000001</v>
+        <v>193.55500000000001</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="41">
@@ -6325,12 +6336,12 @@
       <c r="H138" s="42"/>
       <c r="I138" s="48">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>330.125</v>
+        <v>332.625</v>
       </c>
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
         <v>106</v>
       </c>
@@ -6348,7 +6359,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>50</v>
       </c>
@@ -6368,7 +6379,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23" t="s">
         <v>51</v>
       </c>
@@ -6388,7 +6399,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="50" t="s">
         <v>52</v>
       </c>
@@ -6408,7 +6419,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
         <v>53</v>
       </c>
@@ -6428,7 +6439,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
         <v>54</v>
       </c>
@@ -6448,7 +6459,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
         <v>55</v>
       </c>
@@ -6468,7 +6479,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23" t="s">
         <v>56</v>
       </c>
@@ -6488,7 +6499,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
         <v>57</v>
       </c>
@@ -6508,7 +6519,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>117</v>
       </c>
@@ -6528,7 +6539,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="54"/>
       <c r="B149" s="20" t="s">
         <v>74</v>
@@ -6550,7 +6561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
         <v>58</v>
       </c>
@@ -6574,7 +6585,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="54"/>
       <c r="B151" s="20" t="s">
         <v>109</v>
@@ -6596,7 +6607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
         <v>59</v>
       </c>
@@ -6616,7 +6627,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
         <v>48</v>
       </c>
@@ -6640,7 +6651,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="49" t="s">
         <v>121</v>
       </c>
@@ -6658,7 +6669,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>50</v>
       </c>
@@ -6682,7 +6693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
         <v>51</v>
       </c>
@@ -6702,7 +6713,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="50" t="s">
         <v>52</v>
       </c>
@@ -6722,7 +6733,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="54"/>
       <c r="B158" s="20" t="s">
         <v>72</v>
@@ -6744,7 +6755,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>53</v>
       </c>
@@ -6764,7 +6775,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>54</v>
       </c>
@@ -6784,7 +6795,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
         <v>55</v>
       </c>
@@ -6804,7 +6815,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23" t="s">
         <v>56</v>
       </c>
@@ -6824,7 +6835,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>57</v>
       </c>
@@ -6844,7 +6855,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23" t="s">
         <v>117</v>
       </c>
@@ -6864,7 +6875,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23" t="s">
         <v>58</v>
       </c>
@@ -6888,7 +6899,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23" t="s">
         <v>59</v>
       </c>
@@ -6908,7 +6919,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
         <v>48</v>
       </c>
@@ -6932,7 +6943,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
         <v>126</v>
       </c>
@@ -6950,7 +6961,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23" t="s">
         <v>50</v>
       </c>
@@ -6970,7 +6981,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23" t="s">
         <v>51</v>
       </c>
@@ -6990,7 +7001,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="54"/>
       <c r="B171" s="20" t="s">
         <v>68</v>
@@ -7012,7 +7023,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="54"/>
       <c r="B172" s="20" t="s">
         <v>73</v>
@@ -7032,7 +7043,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="50" t="s">
         <v>52</v>
       </c>
@@ -7052,7 +7063,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23" t="s">
         <v>53</v>
       </c>
@@ -7072,7 +7083,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="54"/>
       <c r="B175" s="20" t="s">
         <v>62</v>
@@ -7094,7 +7105,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23" t="s">
         <v>54</v>
       </c>
@@ -7114,7 +7125,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
         <v>55</v>
       </c>
@@ -7134,7 +7145,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>56</v>
       </c>
@@ -7154,7 +7165,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="54"/>
       <c r="B179" s="20" t="s">
         <v>109</v>
@@ -7176,7 +7187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="20" t="s">
         <v>72</v>
@@ -7198,7 +7209,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>57</v>
       </c>
@@ -7218,7 +7229,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>117</v>
       </c>
@@ -7238,7 +7249,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
         <v>58</v>
       </c>
@@ -7258,7 +7269,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="54"/>
       <c r="B184" s="20" t="s">
         <v>76</v>
@@ -7280,7 +7291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
         <v>59</v>
       </c>
@@ -7300,7 +7311,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23" t="s">
         <v>48</v>
       </c>
@@ -7320,7 +7331,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="49" t="s">
         <v>132</v>
       </c>
@@ -7338,7 +7349,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
         <v>50</v>
       </c>
@@ -7358,7 +7369,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="54"/>
       <c r="B189" s="20" t="s">
         <v>73</v>
@@ -7378,7 +7389,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23" t="s">
         <v>135</v>
       </c>
@@ -7398,7 +7409,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="54"/>
       <c r="B191" s="20" t="s">
         <v>76</v>
@@ -7420,7 +7431,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="54"/>
       <c r="B192" s="20" t="s">
         <v>73</v>
@@ -7440,7 +7451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="50" t="s">
         <v>52</v>
       </c>
@@ -7460,7 +7471,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23" t="s">
         <v>54</v>
       </c>
@@ -7480,7 +7491,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23" t="s">
         <v>55</v>
       </c>
@@ -7500,7 +7511,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23" t="s">
         <v>56</v>
       </c>
@@ -7520,7 +7531,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23" t="s">
         <v>57</v>
       </c>
@@ -7540,7 +7551,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
         <v>117</v>
       </c>
@@ -7560,7 +7571,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
         <v>58</v>
       </c>
@@ -7580,7 +7591,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>59</v>
       </c>
@@ -7600,7 +7611,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>48</v>
       </c>
@@ -7624,7 +7635,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="49" t="s">
         <v>139</v>
       </c>
@@ -7642,7 +7653,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
         <v>50</v>
       </c>
@@ -7662,7 +7673,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
         <v>51</v>
       </c>
@@ -7682,7 +7693,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="50" t="s">
         <v>52</v>
       </c>
@@ -7706,7 +7717,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
         <v>53</v>
       </c>
@@ -7726,7 +7737,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
         <v>54</v>
       </c>
@@ -7746,7 +7757,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
         <v>55</v>
       </c>
@@ -7766,7 +7777,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
         <v>56</v>
       </c>
@@ -7786,7 +7797,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="s">
         <v>57</v>
       </c>
@@ -7806,7 +7817,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23" t="s">
         <v>117</v>
       </c>
@@ -7826,7 +7837,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="s">
         <v>58</v>
       </c>
@@ -7846,7 +7857,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
         <v>59</v>
       </c>
@@ -7866,7 +7877,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
         <v>48</v>
       </c>
@@ -7890,7 +7901,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="49" t="s">
         <v>140</v>
       </c>
@@ -7908,7 +7919,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
         <v>50</v>
       </c>
@@ -7928,7 +7939,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>51</v>
       </c>
@@ -7948,7 +7959,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="50" t="s">
         <v>52</v>
       </c>
@@ -7968,7 +7979,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>53</v>
       </c>
@@ -7988,7 +7999,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>54</v>
       </c>
@@ -8008,7 +8019,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
         <v>55</v>
       </c>
@@ -8028,7 +8039,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>56</v>
       </c>
@@ -8048,7 +8059,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
         <v>57</v>
       </c>
@@ -8068,7 +8079,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
         <v>117</v>
       </c>
@@ -8088,7 +8099,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>58</v>
       </c>
@@ -8114,7 +8125,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
         <v>59</v>
       </c>
@@ -8134,7 +8145,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
         <v>48</v>
       </c>
@@ -8160,7 +8171,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="49" t="s">
         <v>143</v>
       </c>
@@ -8178,7 +8189,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>50</v>
       </c>
@@ -8198,7 +8209,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23" t="s">
         <v>51</v>
       </c>
@@ -8218,7 +8229,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="50" t="s">
         <v>52</v>
       </c>
@@ -8238,7 +8249,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23" t="s">
         <v>53</v>
       </c>
@@ -8258,7 +8269,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23" t="s">
         <v>54</v>
       </c>
@@ -8278,7 +8289,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23" t="s">
         <v>55</v>
       </c>
@@ -8298,7 +8309,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>56</v>
       </c>
@@ -8318,7 +8329,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>57</v>
       </c>
@@ -8338,7 +8349,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>70</v>
@@ -8360,7 +8371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="54"/>
       <c r="B238" s="20" t="s">
         <v>144</v>
@@ -8382,7 +8393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
         <v>117</v>
       </c>
@@ -8402,7 +8413,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="54"/>
       <c r="B240" s="20" t="s">
         <v>147</v>
@@ -8424,7 +8435,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>58</v>
       </c>
@@ -8444,7 +8455,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
         <v>59</v>
       </c>
@@ -8464,7 +8475,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>48</v>
       </c>
@@ -8484,7 +8495,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="49" t="s">
         <v>149</v>
       </c>
@@ -8502,7 +8513,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
         <v>50</v>
       </c>
@@ -8522,7 +8533,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
         <v>51</v>
       </c>
@@ -8542,7 +8553,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
         <v>52</v>
       </c>
@@ -8562,7 +8573,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>53</v>
       </c>
@@ -8582,7 +8593,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="54"/>
       <c r="B249" s="20" t="s">
         <v>144</v>
@@ -8604,7 +8615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23" t="s">
         <v>54</v>
       </c>
@@ -8624,7 +8635,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23" t="s">
         <v>55</v>
       </c>
@@ -8644,7 +8655,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23" t="s">
         <v>56</v>
       </c>
@@ -8664,7 +8675,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23" t="s">
         <v>57</v>
       </c>
@@ -8684,7 +8695,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23" t="s">
         <v>117</v>
       </c>
@@ -8704,7 +8715,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23" t="s">
         <v>58</v>
       </c>
@@ -8724,7 +8735,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23" t="s">
         <v>59</v>
       </c>
@@ -8744,7 +8755,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23" t="s">
         <v>48</v>
       </c>
@@ -8770,7 +8781,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="49" t="s">
         <v>152</v>
       </c>
@@ -8788,7 +8799,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23" t="s">
         <v>50</v>
       </c>
@@ -8808,7 +8819,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
         <v>51</v>
       </c>
@@ -8828,7 +8839,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="54"/>
       <c r="B261" s="20" t="s">
         <v>73</v>
@@ -8848,7 +8859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="54"/>
       <c r="B262" s="20" t="s">
         <v>70</v>
@@ -8870,7 +8881,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
         <v>52</v>
       </c>
@@ -8890,7 +8901,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23" t="s">
         <v>53</v>
       </c>
@@ -8910,7 +8921,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23" t="s">
         <v>54</v>
       </c>
@@ -8930,7 +8941,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="54"/>
       <c r="B266" s="20" t="s">
         <v>155</v>
@@ -8952,7 +8963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23" t="s">
         <v>55</v>
       </c>
@@ -8972,7 +8983,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23" t="s">
         <v>56</v>
       </c>
@@ -8998,7 +9009,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23" t="s">
         <v>57</v>
       </c>
@@ -9018,7 +9029,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23" t="s">
         <v>117</v>
       </c>
@@ -9038,7 +9049,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="54"/>
       <c r="B271" s="20" t="s">
         <v>159</v>
@@ -9060,7 +9071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23" t="s">
         <v>58</v>
       </c>
@@ -9080,7 +9091,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23" t="s">
         <v>59</v>
       </c>
@@ -9100,7 +9111,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23" t="s">
         <v>48</v>
       </c>
@@ -9124,7 +9135,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="49" t="s">
         <v>161</v>
       </c>
@@ -9142,7 +9153,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23" t="s">
         <v>50</v>
       </c>
@@ -9162,7 +9173,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23" t="s">
         <v>51</v>
       </c>
@@ -9182,7 +9193,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="50"/>
       <c r="B278" s="20" t="s">
         <v>155</v>
@@ -9204,7 +9215,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>144</v>
@@ -9226,7 +9237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23" t="s">
         <v>52</v>
       </c>
@@ -9246,7 +9257,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23" t="s">
         <v>53</v>
       </c>
@@ -9266,7 +9277,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23" t="s">
         <v>54</v>
       </c>
@@ -9286,7 +9297,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23" t="s">
         <v>55</v>
       </c>
@@ -9306,7 +9317,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23" t="s">
         <v>56</v>
       </c>
@@ -9326,7 +9337,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23" t="s">
         <v>57</v>
       </c>
@@ -9352,7 +9363,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23" t="s">
         <v>117</v>
       </c>
@@ -9372,7 +9383,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
         <v>58</v>
       </c>
@@ -9392,7 +9403,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23" t="s">
         <v>59</v>
       </c>
@@ -9412,7 +9423,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23" t="s">
         <v>48</v>
       </c>
@@ -9432,7 +9443,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="49" t="s">
         <v>165</v>
       </c>
@@ -9450,7 +9461,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23" t="s">
         <v>50</v>
       </c>
@@ -9470,7 +9481,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23" t="s">
         <v>51</v>
       </c>
@@ -9490,7 +9501,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23" t="s">
         <v>52</v>
       </c>
@@ -9510,7 +9521,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23" t="s">
         <v>53</v>
       </c>
@@ -9530,7 +9541,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23" t="s">
         <v>54</v>
       </c>
@@ -9550,7 +9561,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23" t="s">
         <v>55</v>
       </c>
@@ -9570,7 +9581,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23" t="s">
         <v>56</v>
       </c>
@@ -9596,7 +9607,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23" t="s">
         <v>57</v>
       </c>
@@ -9616,7 +9627,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23" t="s">
         <v>117</v>
       </c>
@@ -9636,7 +9647,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23" t="s">
         <v>58</v>
       </c>
@@ -9656,7 +9667,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23" t="s">
         <v>59</v>
       </c>
@@ -9676,7 +9687,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>74</v>
@@ -9698,7 +9709,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>74</v>
@@ -9720,7 +9731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23" t="s">
         <v>48</v>
       </c>
@@ -9744,7 +9755,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="49" t="s">
         <v>167</v>
       </c>
@@ -9762,7 +9773,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23" t="s">
         <v>50</v>
       </c>
@@ -9782,7 +9793,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23" t="s">
         <v>51</v>
       </c>
@@ -9802,7 +9813,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23" t="s">
         <v>52</v>
       </c>
@@ -9822,7 +9833,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23" t="s">
         <v>53</v>
       </c>
@@ -9842,7 +9853,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23" t="s">
         <v>54</v>
       </c>
@@ -9862,7 +9873,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23" t="s">
         <v>55</v>
       </c>
@@ -9882,7 +9893,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23" t="s">
         <v>56</v>
       </c>
@@ -9902,7 +9913,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23" t="s">
         <v>57</v>
       </c>
@@ -9922,7 +9933,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23" t="s">
         <v>117</v>
       </c>
@@ -9942,7 +9953,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23" t="s">
         <v>58</v>
       </c>
@@ -9962,7 +9973,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23" t="s">
         <v>59</v>
       </c>
@@ -9982,7 +9993,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23" t="s">
         <v>48</v>
       </c>
@@ -10006,7 +10017,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="49" t="s">
         <v>172</v>
       </c>
@@ -10024,7 +10035,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>50</v>
       </c>
@@ -10044,7 +10055,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23" t="s">
         <v>51</v>
       </c>
@@ -10068,7 +10079,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23" t="s">
         <v>52</v>
       </c>
@@ -10088,7 +10099,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23" t="s">
         <v>53</v>
       </c>
@@ -10108,7 +10119,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23" t="s">
         <v>54</v>
       </c>
@@ -10128,7 +10139,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23" t="s">
         <v>55</v>
       </c>
@@ -10148,7 +10159,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23" t="s">
         <v>56</v>
       </c>
@@ -10168,7 +10179,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23" t="s">
         <v>57</v>
       </c>
@@ -10188,7 +10199,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23" t="s">
         <v>117</v>
       </c>
@@ -10208,7 +10219,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23" t="s">
         <v>58</v>
       </c>
@@ -10228,7 +10239,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23" t="s">
         <v>59</v>
       </c>
@@ -10254,7 +10265,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23" t="s">
         <v>48</v>
       </c>
@@ -10278,7 +10289,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="49" t="s">
         <v>175</v>
       </c>
@@ -10296,7 +10307,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23" t="s">
         <v>50</v>
       </c>
@@ -10316,7 +10327,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23" t="s">
         <v>51</v>
       </c>
@@ -10336,7 +10347,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23" t="s">
         <v>52</v>
       </c>
@@ -10356,7 +10367,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23" t="s">
         <v>53</v>
       </c>
@@ -10376,7 +10387,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23" t="s">
         <v>54</v>
       </c>
@@ -10396,7 +10407,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23" t="s">
         <v>55</v>
       </c>
@@ -10416,7 +10427,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23" t="s">
         <v>56</v>
       </c>
@@ -10436,7 +10447,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23" t="s">
         <v>57</v>
       </c>
@@ -10456,7 +10467,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23" t="s">
         <v>117</v>
       </c>
@@ -10476,7 +10487,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23" t="s">
         <v>58</v>
       </c>
@@ -10496,7 +10507,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23" t="s">
         <v>59</v>
       </c>
@@ -10516,7 +10527,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>176</v>
@@ -10536,7 +10547,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23" t="s">
         <v>48</v>
       </c>
@@ -10560,7 +10571,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="49" t="s">
         <v>177</v>
       </c>
@@ -10578,7 +10589,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>44957</v>
       </c>
@@ -10598,7 +10609,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>44985</v>
       </c>
@@ -10618,7 +10629,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>45016</v>
       </c>
@@ -10638,7 +10649,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>45046</v>
       </c>
@@ -10658,7 +10669,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>45077</v>
       </c>
@@ -10678,7 +10689,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>45107</v>
       </c>
@@ -10698,7 +10709,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>45138</v>
       </c>
@@ -10722,7 +10733,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>45169</v>
       </c>
@@ -10742,7 +10753,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>45199</v>
       </c>
@@ -10766,7 +10777,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>45230</v>
       </c>
@@ -10786,7 +10797,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>45260</v>
       </c>
@@ -10806,27 +10817,33 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>45291</v>
       </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
-      <c r="D357" s="39"/>
+      <c r="B357" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="39">
+        <v>5</v>
+      </c>
       <c r="E357" s="48"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="39"/>
       <c r="I357" s="48"/>
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358" s="23">
-        <v>45322</v>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="70" t="s">
+        <v>183</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10842,29 +10859,33 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="48"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="48"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
-        <v>45382</v>
-      </c>
-      <c r="B360" s="20"/>
+        <v>45351</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
       <c r="E360" s="48"/>
@@ -10876,11 +10897,13 @@
       <c r="H360" s="39"/>
       <c r="I360" s="48"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K360" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10896,9 +10919,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10914,9 +10937,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10932,9 +10955,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10950,9 +10973,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10968,9 +10991,9 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10986,9 +11009,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11004,9 +11027,9 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11022,9 +11045,9 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11040,9 +11063,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11058,9 +11081,9 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11076,9 +11099,9 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11094,9 +11117,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11112,9 +11135,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11130,9 +11153,9 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11148,9 +11171,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11166,9 +11189,9 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11184,9 +11207,9 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11202,8 +11225,10 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379" s="54"/>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="23">
+        <v>45930</v>
+      </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -11218,7 +11243,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="54"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11234,7 +11259,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="54"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11250,7 +11275,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="54"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11266,7 +11291,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="54"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11282,7 +11307,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="54"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11298,7 +11323,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="54"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11314,7 +11339,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="54"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11330,7 +11355,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="54"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11346,7 +11371,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="54"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11362,7 +11387,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="54"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11378,7 +11403,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="54"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11394,7 +11419,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="54"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11410,7 +11435,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="54"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11426,7 +11451,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="54"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11442,7 +11467,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="54"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11458,7 +11483,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="54"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11474,7 +11499,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="54"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11490,7 +11515,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="54"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11506,7 +11531,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="54"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11522,7 +11547,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="54"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11538,7 +11563,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="54"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11554,7 +11579,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="54"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11570,7 +11595,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="54"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11586,7 +11611,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="54"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11602,7 +11627,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="54"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11618,7 +11643,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="54"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11634,7 +11659,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="54"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11650,7 +11675,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="54"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11666,7 +11691,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="54"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11682,7 +11707,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="54"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11698,7 +11723,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="54"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11714,7 +11739,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="54"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11730,7 +11755,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="54"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11746,7 +11771,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="54"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11762,7 +11787,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="54"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11778,7 +11803,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="54"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11794,7 +11819,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="54"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11810,7 +11835,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="54"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11826,7 +11851,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="54"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11842,7 +11867,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="54"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11858,7 +11883,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="54"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11874,7 +11899,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="54"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11890,7 +11915,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="54"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11906,7 +11931,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="54"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11922,7 +11947,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="54"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11938,7 +11963,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="54"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11954,7 +11979,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="54"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11970,7 +11995,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="54"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11986,7 +12011,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="54"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12002,7 +12027,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="54"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12018,7 +12043,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="54"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12034,7 +12059,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="54"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12050,7 +12075,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="54"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12066,7 +12091,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="54"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12082,7 +12107,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="54"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12098,7 +12123,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="54"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12114,7 +12139,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="54"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12130,7 +12155,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="54"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12146,7 +12171,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="54"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -12162,7 +12187,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="54"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -12178,7 +12203,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="54"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -12194,7 +12219,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="54"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -12210,7 +12235,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="54"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -12226,7 +12251,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="54"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -12242,7 +12267,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="54"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -12258,7 +12283,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="54"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -12274,7 +12299,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="54"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -12290,7 +12315,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="54"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -12306,7 +12331,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="54"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -12322,7 +12347,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="54"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12338,7 +12363,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="54"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -12354,7 +12379,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="54"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -12370,7 +12395,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="54"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -12386,7 +12411,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="54"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -12402,7 +12427,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="54"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -12418,7 +12443,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="54"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -12434,7 +12459,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="54"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -12450,7 +12475,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="54"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -12466,7 +12491,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="54"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -12482,7 +12507,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="54"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -12498,7 +12523,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="54"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12514,21 +12539,37 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461" s="40"/>
-      <c r="B461" s="15"/>
-      <c r="C461" s="41"/>
-      <c r="D461" s="42"/>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="54"/>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="39"/>
       <c r="E461" s="48"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H461" s="42"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H461" s="39"/>
       <c r="I461" s="48"/>
-      <c r="J461" s="12"/>
-      <c r="K461" s="15"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="40"/>
+      <c r="B462" s="15"/>
+      <c r="C462" s="41"/>
+      <c r="D462" s="42"/>
+      <c r="E462" s="48"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H462" s="42"/>
+      <c r="I462" s="48"/>
+      <c r="J462" s="12"/>
+      <c r="K462" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12545,10 +12586,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12571,29 +12612,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -12606,7 +12647,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12635,7 +12676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -12657,17 +12698,17 @@
         <v>0.37499999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12688,7 +12729,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12715,7 +12756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12741,7 +12782,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12767,7 +12808,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12793,7 +12834,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12819,7 +12860,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12845,7 +12886,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12871,7 +12912,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12897,7 +12938,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12917,7 +12958,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12937,7 +12978,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12957,7 +12998,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12978,7 +13019,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12999,7 +13040,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13020,7 +13061,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13041,7 +13082,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13062,7 +13103,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13083,7 +13124,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13104,7 +13145,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13125,7 +13166,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13146,7 +13187,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13167,7 +13208,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13188,7 +13229,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13209,7 +13250,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13230,7 +13271,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13251,7 +13292,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13272,7 +13313,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13293,7 +13334,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13314,7 +13355,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13335,7 +13376,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13356,7 +13397,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13377,7 +13418,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13386,7 +13427,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13395,7 +13436,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13404,7 +13445,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13413,7 +13454,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13422,7 +13463,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13431,7 +13472,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13440,7 +13481,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13449,7 +13490,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13458,7 +13499,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13467,7 +13508,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13476,7 +13517,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13485,7 +13526,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13494,7 +13535,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13503,7 +13544,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13512,7 +13553,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13521,7 +13562,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13530,7 +13571,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13539,7 +13580,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13548,7 +13589,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13557,7 +13598,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13566,7 +13607,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13575,7 +13616,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13584,7 +13625,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13593,7 +13634,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13602,7 +13643,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13611,7 +13652,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13620,7 +13661,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13629,7 +13670,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13638,7 +13679,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
